--- a/data/trans_orig/P34D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Provincia-trans_orig.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -758,12 +758,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -827,12 +827,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>56,26%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -938,12 +938,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -986,12 +986,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -1034,12 +1034,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>23,65%</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1427,12 +1427,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>33,18%</t>
         </is>
       </c>
     </row>
@@ -1523,12 +1523,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>39,29%</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1634,12 +1634,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>30,93%</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>58,88%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>36,01%</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44,06%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>39,46%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>32,89%</t>
         </is>
       </c>
     </row>
@@ -2150,12 +2150,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>28,6%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -2363,12 +2363,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -2432,12 +2432,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2474,12 +2474,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2543,12 +2543,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>31,35%</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2660,12 +2660,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>36,95%</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,9%</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2798,12 +2798,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>52,69%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>29,01%</t>
         </is>
       </c>
     </row>
@@ -3128,12 +3128,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>56,83%</t>
         </is>
       </c>
     </row>
@@ -3266,12 +3266,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3287,12 +3287,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>32,67%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>25,54%</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3590,12 +3590,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>59,63%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>37,76%</t>
         </is>
       </c>
     </row>
@@ -3686,12 +3686,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>22,76%</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>39,68%</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,06%</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4127,12 +4127,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -4175,12 +4175,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>29,09%</t>
         </is>
       </c>
     </row>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4286,12 +4286,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>30,59%</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>36,2%</t>
         </is>
       </c>
     </row>
@@ -4382,12 +4382,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="H57" s="2" t="n">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="M57" s="2" t="n">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>19,54%</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="L58" s="2" t="inlineStr">
@@ -4493,12 +4493,12 @@
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,29%</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
@@ -4637,12 +4637,12 @@
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -4664,12 +4664,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
@@ -4754,12 +4754,12 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="M62" s="2" t="n">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,25%</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4802,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
@@ -4844,12 +4844,12 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -4871,12 +4871,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>52,93%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
@@ -4913,12 +4913,12 @@
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>47,3%</t>
         </is>
       </c>
     </row>
@@ -4940,12 +4940,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,55%</t>
         </is>
       </c>
     </row>
@@ -5009,12 +5009,12 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="H66" s="2" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="M66" s="2" t="n">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,86%</t>
         </is>
       </c>
     </row>
@@ -5153,12 +5153,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H68" s="2" t="n">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="M68" s="2" t="n">
@@ -5195,12 +5195,12 @@
       </c>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
@@ -5243,12 +5243,12 @@
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M69" s="2" t="n">
@@ -5264,12 +5264,12 @@
       </c>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -5291,12 +5291,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
@@ -5312,12 +5312,12 @@
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="M70" s="2" t="n">
@@ -5333,12 +5333,12 @@
       </c>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,68%</t>
         </is>
       </c>
     </row>
@@ -5360,12 +5360,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
@@ -5381,12 +5381,12 @@
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="M71" s="2" t="n">
@@ -5402,12 +5402,12 @@
       </c>
       <c r="P71" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -5429,12 +5429,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
@@ -5450,12 +5450,12 @@
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="M72" s="2" t="n">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -5498,12 +5498,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="M73" s="2" t="n">
@@ -5540,12 +5540,12 @@
       </c>
       <c r="P73" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
         <v>46</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>60834</v>
+        <v>60835</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="M74" s="2" t="n">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>510</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34D1_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+          <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -705,7 +705,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -753,17 +753,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -795,17 +795,17 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -822,38 +822,38 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -864,17 +864,17 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -960,17 +960,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -981,17 +981,17 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -1029,17 +1029,17 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -1098,17 +1098,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1140,544 +1140,544 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>204578</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>78,59%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>71,79%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83,63%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>510</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>254333</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93,71%</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>90,41%</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>783</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>458910</v>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>82,39%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>89,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>55720</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>17070</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>72790</v>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C12" s="2" t="n">
+        <v>331</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>260298</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>538</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>271403</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>869</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>531700</v>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Cadiz</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>2183</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>12,36%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>39,08%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>2343</v>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>6019</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>7,45%</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>22,58%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6019</v>
+        <v>2343</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>0,78%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7256</v>
+        <v>6019</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>5020</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>12276</v>
+        <v>6019</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7256</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>5020</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>17074</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>21,14%</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>9,44%</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>38,04%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1740</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,85%</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>29,59%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>12</v>
-      </c>
       <c r="N15" s="2" t="n">
-        <v>18814</v>
+        <v>12276</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>19745</v>
+        <v>17074</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>4007</v>
+        <v>1740</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>23751</v>
+        <v>18814</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>14460</v>
+        <v>19745</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>1716</v>
+        <v>4007</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>40,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>16177</v>
+        <v>23751</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>16035</v>
+        <v>14460</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>2993</v>
+        <v>1716</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1687,2229 +1687,2229 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>19028</v>
+        <v>16177</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B19" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>80748</v>
+        <v>16035</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>17660</v>
+        <v>2993</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>98408</v>
+        <v>19028</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,57%</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>6201</v>
+        <v>438549</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>84,45%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>79,74%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>2</v>
+        <v>701</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>2112</v>
+        <v>536906</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8</v>
+        <v>1039</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8314</v>
+        <v>975456</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>93,06%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>519297</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>717</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>554566</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>1099</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>1073864</v>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>6608</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>18,7%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>3701</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>26,01%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>10309</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>4,36%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>15,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>17</v>
-      </c>
       <c r="D22" s="2" t="n">
-        <v>17919</v>
+        <v>6201</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>10686</v>
+        <v>2112</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>28605</v>
+        <v>8314</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8308</v>
+        <v>6608</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>2815</v>
+        <v>3701</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>10</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>11123</v>
+        <v>10309</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>22171</v>
+        <v>17919</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>8915</v>
+        <v>10686</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>29</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>31086</v>
+        <v>28605</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>17414</v>
+        <v>8308</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>7867</v>
+        <v>2815</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>25282</v>
+        <v>11123</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>7141</v>
+        <v>22171</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>3271</v>
+        <v>8915</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>10413</v>
+        <v>31086</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B27" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>85763</v>
+        <v>17414</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>39368</v>
+        <v>7867</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>125131</v>
+        <v>25282</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="D28" s="2" t="n">
-        <v>2438</v>
+        <v>7141</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>2510</v>
+        <v>3271</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4948</v>
+        <v>10413</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>3</v>
+        <v>284</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>4767</v>
+        <v>236477</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>73,39%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>68,02%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0</v>
+        <v>333916</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,45%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3</v>
+        <v>776</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4767</v>
+        <v>570393</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>84,85%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="n">
-        <v>5</v>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>12948</v>
+        <v>322240</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>14643</v>
+        <v>373284</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>23</v>
+        <v>896</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>27591</v>
+        <v>695524</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
       <c r="B31" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>2438</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>21135</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>28,64%</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>46,1%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="I31" s="2" t="n">
-        <v>3628</v>
+        <v>2510</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>24763</v>
+        <v>4948</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>14</v>
-      </c>
       <c r="D32" s="2" t="n">
-        <v>14863</v>
+        <v>4767</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>17676</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>32539</v>
+        <v>4767</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>16076</v>
+        <v>12948</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>10670</v>
+        <v>14643</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>26746</v>
+        <v>27591</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1557</v>
+        <v>21135</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>3358</v>
+        <v>3628</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>4915</v>
+        <v>24763</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B35" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>73784</v>
+        <v>14863</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>52485</v>
+        <v>17676</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>126269</v>
+        <v>32539</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Huelva</t>
-        </is>
-      </c>
+      <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>999</v>
+        <v>16076</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>10670</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>999</v>
+        <v>26746</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1557</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>3358</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>2224</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>16,14%</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>50,45%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="N37" s="2" t="n">
-        <v>2224</v>
+        <v>4915</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>4142</v>
+        <v>248456</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>77,1%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>7</v>
+        <v>547</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>2926</v>
+        <v>376071</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>83,55%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>11</v>
+        <v>783</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>7069</v>
+        <v>624527</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>86,33%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="n">
-        <v>4</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>4637</v>
+        <v>322240</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>2</v>
+        <v>599</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>1712</v>
+        <v>428556</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="n">
+        <v>891</v>
+      </c>
+      <c r="N39" s="2" t="n">
+        <v>750796</v>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>999</v>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>45,45%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>6349</v>
-      </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>28,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>15786</v>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>47,12%</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>28,7%</t>
-        </is>
-      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>3728</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>19515</v>
+        <v>999</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5660</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>1987</v>
+        <v>2224</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7646</v>
+        <v>2224</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2282</v>
+        <v>4142</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>1199</v>
+        <v>2926</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3481</v>
+        <v>7069</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B43" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>33506</v>
+        <v>4637</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>13777</v>
+        <v>1712</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>47283</v>
+        <v>6349</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Jaen</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>15787</v>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>2448</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>14,33%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>3728</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>2448</v>
+        <v>19515</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2880</v>
+        <v>5660</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>1310</v>
+        <v>1987</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>4190</v>
+        <v>7646</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>13316</v>
+        <v>2282</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>7024</v>
+        <v>1199</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>59,63%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>20340</v>
+        <v>3481</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>6151</v>
+        <v>163242</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>87,86%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>3</v>
+        <v>468</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>3380</v>
+        <v>217719</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9</v>
+        <v>714</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>9531</v>
+        <v>380961</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>88,96%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>91,98%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="3" t="n">
-        <v>3</v>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>18150</v>
+        <v>196748</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>5</v>
+        <v>491</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>3202</v>
+        <v>231496</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
-        <v>21</v>
+        <v>770</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>21352</v>
+        <v>428244</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Jaen</t>
+        </is>
+      </c>
       <c r="B49" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="D49" s="2" t="n">
-        <v>10576</v>
+        <v>2448</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>3432</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>14007</v>
+        <v>2448</v>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2879</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>5052</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>8,63%</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>3,0%</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>18,43%</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="I50" s="2" t="n">
-        <v>1354</v>
+        <v>1310</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
@@ -3919,1702 +3919,1696 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>6406</v>
+        <v>4190</v>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>1,87%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B51" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>58572</v>
+        <v>13316</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="H51" s="2" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>19703</v>
+        <v>7024</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="M51" s="2" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>78275</v>
+        <v>20340</v>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2955</v>
+        <v>6151</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
         <v>3</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>2784</v>
+        <v>3380</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>5739</v>
+        <v>9531</v>
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>7388</v>
+        <v>18150</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>2760</v>
+        <v>3202</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>10147</v>
+        <v>21352</v>
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>21622</v>
+        <v>10576</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>10306</v>
+        <v>3432</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>31929</v>
+        <v>14007</v>
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>18504</v>
+        <v>5052</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>13083</v>
+        <v>1354</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>31586</v>
+        <v>6406</v>
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>31839</v>
+        <v>218651</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>73,59%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>8373</v>
+        <v>255919</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
-        <v>33</v>
+        <v>756</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>40211</v>
+        <v>474571</v>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>277223</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>460</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>275622</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>831</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>552845</v>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>10626</v>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>19,37%</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>9041</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>18,55%</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>8,94%</t>
-        </is>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>33,54%</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>19666</v>
-      </c>
-      <c r="O57" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-      <c r="P57" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>19,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="D58" s="2" t="n">
-        <v>11211</v>
+        <v>2955</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>2784</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I58" s="2" t="n">
-        <v>2403</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>1,46%</t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>14</v>
-      </c>
       <c r="N58" s="2" t="n">
-        <v>13613</v>
+        <v>5739</v>
       </c>
       <c r="O58" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="B59" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>104143</v>
+        <v>7388</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H59" s="2" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>48749</v>
+        <v>2760</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="M59" s="2" t="n">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>152892</v>
+        <v>10147</v>
       </c>
       <c r="O59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
+      <c r="A60" s="1" t="n"/>
       <c r="B60" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>7018</v>
+        <v>21622</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H60" s="2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>751</v>
+        <v>10306</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="M60" s="2" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>7769</v>
+        <v>31929</v>
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>4316</v>
+        <v>18504</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="H61" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>1520</v>
+        <v>13083</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="M61" s="2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>5837</v>
+        <v>31586</v>
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45575</v>
+        <v>31839</v>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H62" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>3827</v>
+        <v>8373</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M62" s="2" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>49402</v>
+        <v>40212</v>
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>6093</v>
+        <v>10626</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>9740</v>
+        <v>9041</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M63" s="2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>15833</v>
+        <v>19666</v>
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>2,18%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>61337</v>
+        <v>11211</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="H64" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>13766</v>
+        <v>2403</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="M64" s="2" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>75103</v>
+        <v>13613</v>
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>13</v>
+        <v>519</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>16054</v>
+        <v>523451</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="H65" s="2" t="n">
-        <v>9</v>
+        <v>903</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>9783</v>
+        <v>754047</v>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="M65" s="2" t="n">
-        <v>22</v>
+        <v>1422</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>25837</v>
+        <v>1277498</v>
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>91,73%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>598</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>627594</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>958</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>802796</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="n">
+        <v>1556</v>
+      </c>
+      <c r="N66" s="2" t="n">
+        <v>1430390</v>
+      </c>
+      <c r="O66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>7018</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>12399</v>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>4,37%</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="n">
+      <c r="I67" s="2" t="n">
+        <v>751</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="M67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>7769</v>
+      </c>
+      <c r="O67" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>4316</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="n">
-        <v>1553</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="inlineStr">
+      <c r="I68" s="2" t="n">
+        <v>1520</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L66" s="2" t="inlineStr">
-        <is>
-          <t>18,04%</t>
-        </is>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="N66" s="2" t="n">
-        <v>13952</v>
-      </c>
-      <c r="O66" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>152792</v>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>40941</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>193733</v>
-      </c>
-      <c r="O67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>23093</v>
-      </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="I68" s="2" t="n">
-        <v>10875</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>4,35%</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="M68" s="2" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>33968</v>
+        <v>5837</v>
       </c>
       <c r="O68" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>31</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>35957</v>
+        <v>45575</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>11675</v>
+        <v>3827</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M69" s="2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>47632</v>
+        <v>49402</v>
       </c>
       <c r="O69" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>116</v>
-      </c>
       <c r="D70" s="2" t="n">
-        <v>147230</v>
+        <v>6093</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>60179</v>
+        <v>9740</v>
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="M70" s="2" t="n">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>207409</v>
+        <v>15833</v>
       </c>
       <c r="O70" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>84592</v>
+        <v>61337</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H71" s="2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>36098</v>
+        <v>13766</v>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K71" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="M71" s="2" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>120689</v>
+        <v>75103</v>
       </c>
       <c r="O71" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="P71" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>190946</v>
+        <v>16054</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>65504</v>
+        <v>9783</v>
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="K72" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="M72" s="2" t="n">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>256450</v>
+        <v>25837</v>
       </c>
       <c r="O72" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>102376</v>
+        <v>12399</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>49290</v>
+        <v>1553</v>
       </c>
       <c r="J73" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K73" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="M73" s="2" t="n">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>151666</v>
+        <v>13952</v>
       </c>
       <c r="O73" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P73" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>1,47%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>46</v>
+        <v>651</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>60835</v>
+        <v>706636</v>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="H74" s="2" t="n">
-        <v>18</v>
+        <v>1029</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>16132</v>
+        <v>824731</v>
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="K74" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="M74" s="2" t="n">
-        <v>64</v>
+        <v>1680</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>76967</v>
+        <v>1531367</v>
       </c>
       <c r="O74" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>86,57%</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>90,55%</t>
         </is>
       </c>
     </row>
@@ -5626,10 +5620,10 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>510</v>
+        <v>762</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>645029</v>
+        <v>859428</v>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
@@ -5647,10 +5641,10 @@
         </is>
       </c>
       <c r="H75" s="2" t="n">
-        <v>272</v>
+        <v>1061</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>249753</v>
+        <v>865672</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
@@ -5668,10 +5662,10 @@
         </is>
       </c>
       <c r="M75" s="2" t="n">
-        <v>782</v>
+        <v>1823</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>894781</v>
+        <v>1725100</v>
       </c>
       <c r="O75" s="2" t="inlineStr">
         <is>
@@ -5690,7 +5684,634 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>23093</v>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I76" s="2" t="n">
+        <v>10875</v>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>33968</v>
+      </c>
+      <c r="O76" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>35957</v>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>11675</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="M77" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="N77" s="2" t="n">
+        <v>47632</v>
+      </c>
+      <c r="O77" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>147230</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>60179</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>207409</v>
+      </c>
+      <c r="O78" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="P78" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>84592</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>36098</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>120689</v>
+      </c>
+      <c r="O79" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>190946</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>65504</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>256450</v>
+      </c>
+      <c r="O80" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>102376</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>49290</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>151666</v>
+      </c>
+      <c r="O81" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="P81" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>60835</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>16132</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>76967</v>
+      </c>
+      <c r="O82" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="P82" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2740039</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>80,94%</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>79,11%</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>82,63%</t>
+        </is>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>5088</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>3553642</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>93,43%</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t>92,3%</t>
+        </is>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>7953</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>6293682</v>
+      </c>
+      <c r="O83" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>86,56%</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>88,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>3375</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>3385068</v>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>5360</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>3803395</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>8735</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>7188463</v>
+      </c>
+      <c r="O84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -5698,19 +6319,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="A22:A30"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A58:A66"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A67:A75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
